--- a/ExcelData/Round.xlsx
+++ b/ExcelData/Round.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD2576-DCDD-4F48-84DF-B238E922D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4B4A1-7692-465D-81D6-5228DCF3B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="1">
         <v>360</v>
@@ -551,7 +551,7 @@
         <v>0.4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="1">
         <v>420</v>
@@ -571,7 +571,7 @@
         <v>0.6</v>
       </c>
       <c r="D7" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="1">
         <v>480</v>
@@ -591,7 +591,7 @@
         <v>0.8</v>
       </c>
       <c r="D8" s="1">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="1">
         <v>540</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1">
         <v>600</v>
@@ -631,7 +631,7 @@
         <v>1.2</v>
       </c>
       <c r="D10" s="1">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="1">
         <v>660</v>
@@ -651,7 +651,7 @@
         <v>1.4</v>
       </c>
       <c r="D11" s="1">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="1">
         <v>720</v>
@@ -671,7 +671,7 @@
         <v>1.6</v>
       </c>
       <c r="D12" s="1">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="1">
         <v>780</v>
@@ -691,7 +691,7 @@
         <v>1.8</v>
       </c>
       <c r="D13" s="1">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="1">
         <v>840</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>900</v>
@@ -731,7 +731,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="1">
         <v>960</v>
@@ -751,7 +751,7 @@
         <v>2.4</v>
       </c>
       <c r="D16" s="1">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="E16" s="1">
         <v>1020</v>
@@ -771,7 +771,7 @@
         <v>2.6</v>
       </c>
       <c r="D17" s="1">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="E17" s="1">
         <v>1080</v>
@@ -791,7 +791,7 @@
         <v>2.8</v>
       </c>
       <c r="D18" s="1">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="E18" s="1">
         <v>1140</v>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="1">
         <v>1200</v>
@@ -831,7 +831,7 @@
         <v>3.2</v>
       </c>
       <c r="D20" s="1">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="E20" s="1">
         <v>1260</v>
@@ -851,7 +851,7 @@
         <v>3.4</v>
       </c>
       <c r="D21" s="1">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="E21" s="1">
         <v>1320</v>
@@ -871,7 +871,7 @@
         <v>3.6</v>
       </c>
       <c r="D22" s="1">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E22" s="1">
         <v>1380</v>
@@ -891,7 +891,7 @@
         <v>3.8</v>
       </c>
       <c r="D23" s="1">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="E23" s="1">
         <v>1440</v>
@@ -911,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>1500</v>
@@ -931,7 +931,7 @@
         <v>4.2</v>
       </c>
       <c r="D25" s="1">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="E25" s="1">
         <v>1560</v>
@@ -951,7 +951,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E26" s="1">
         <v>1620</v>
@@ -971,7 +971,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D27" s="1">
-        <v>4.5999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E27" s="1">
         <v>1680</v>
@@ -991,7 +991,7 @@
         <v>4.8</v>
       </c>
       <c r="D28" s="1">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="E28" s="1">
         <v>1740</v>
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E29" s="1">
         <v>1800</v>
@@ -1031,7 +1031,7 @@
         <v>5.2</v>
       </c>
       <c r="D30" s="1">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="E30" s="1">
         <v>1860</v>
@@ -1051,7 +1051,7 @@
         <v>5.4</v>
       </c>
       <c r="D31" s="1">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="E31" s="1">
         <v>1920</v>
@@ -1071,7 +1071,7 @@
         <v>5.6</v>
       </c>
       <c r="D32" s="1">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="E32" s="1">
         <v>1980</v>
@@ -1091,7 +1091,7 @@
         <v>5.8</v>
       </c>
       <c r="D33" s="1">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="E33" s="1">
         <v>2040</v>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
         <v>2100</v>
@@ -1131,7 +1131,7 @@
         <v>6.2</v>
       </c>
       <c r="D35" s="1">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="E35" s="1">
         <v>2160</v>
@@ -1151,7 +1151,7 @@
         <v>6.4</v>
       </c>
       <c r="D36" s="1">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="E36" s="1">
         <v>2220</v>
@@ -1171,7 +1171,7 @@
         <v>6.6</v>
       </c>
       <c r="D37" s="1">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="E37" s="1">
         <v>2280</v>
@@ -1191,7 +1191,7 @@
         <v>6.8</v>
       </c>
       <c r="D38" s="1">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="E38" s="1">
         <v>2340</v>
@@ -1211,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="E39" s="1">
         <v>2400</v>
@@ -1231,7 +1231,7 @@
         <v>7.2</v>
       </c>
       <c r="D40" s="1">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="E40" s="1">
         <v>2460</v>
@@ -1251,7 +1251,7 @@
         <v>7.4</v>
       </c>
       <c r="D41" s="1">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="E41" s="1">
         <v>2520</v>
@@ -1271,7 +1271,7 @@
         <v>7.6</v>
       </c>
       <c r="D42" s="1">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="E42" s="1">
         <v>2580</v>
@@ -1291,7 +1291,7 @@
         <v>7.8</v>
       </c>
       <c r="D43" s="1">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="E43" s="1">
         <v>2640</v>
@@ -1311,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
         <v>2700</v>
@@ -1331,7 +1331,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D45" s="1">
-        <v>8.1999999999999993</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E45" s="1">
         <v>2760</v>
@@ -1351,7 +1351,7 @@
         <v>8.4</v>
       </c>
       <c r="D46" s="1">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="E46" s="1">
         <v>2820</v>
@@ -1371,7 +1371,7 @@
         <v>8.6</v>
       </c>
       <c r="D47" s="1">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="E47" s="1">
         <v>2880</v>
@@ -1391,7 +1391,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D48" s="1">
-        <v>8.8000000000000007</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E48" s="1">
         <v>2940</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="1">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="E49" s="1">
         <v>3000</v>
@@ -1431,7 +1431,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D50" s="1">
-        <v>9.1999999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E50" s="1">
         <v>3060</v>
@@ -1451,7 +1451,7 @@
         <v>9.4</v>
       </c>
       <c r="D51" s="1">
-        <v>9.4</v>
+        <v>4.7</v>
       </c>
       <c r="E51" s="1">
         <v>3120</v>
@@ -1471,7 +1471,7 @@
         <v>9.6</v>
       </c>
       <c r="D52" s="1">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="E52" s="1">
         <v>3180</v>
@@ -1491,7 +1491,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D53" s="1">
-        <v>9.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E53" s="1">
         <v>3240</v>
@@ -1511,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1">
         <v>3300</v>
@@ -1531,7 +1531,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>10.199999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E55" s="1">
         <v>3360</v>
@@ -1551,7 +1551,7 @@
         <v>10.4</v>
       </c>
       <c r="D56" s="1">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="E56" s="1">
         <v>3420</v>
@@ -1571,7 +1571,7 @@
         <v>10.6</v>
       </c>
       <c r="D57" s="1">
-        <v>10.6</v>
+        <v>5.3</v>
       </c>
       <c r="E57" s="1">
         <v>3480</v>
@@ -1591,7 +1591,7 @@
         <v>10.8</v>
       </c>
       <c r="D58" s="1">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
       <c r="E58" s="1">
         <v>3540</v>
@@ -1611,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="E59" s="1">
         <v>3600</v>
@@ -1631,7 +1631,7 @@
         <v>11.2</v>
       </c>
       <c r="D60" s="1">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="E60" s="1">
         <v>3660</v>
@@ -1651,7 +1651,7 @@
         <v>11.4</v>
       </c>
       <c r="D61" s="1">
-        <v>11.4</v>
+        <v>5.7</v>
       </c>
       <c r="E61" s="1">
         <v>3720</v>
@@ -1671,7 +1671,7 @@
         <v>11.6</v>
       </c>
       <c r="D62" s="1">
-        <v>11.6</v>
+        <v>5.8</v>
       </c>
       <c r="E62" s="1">
         <v>3780</v>
@@ -1691,7 +1691,7 @@
         <v>11.8</v>
       </c>
       <c r="D63" s="1">
-        <v>11.8</v>
+        <v>5.9</v>
       </c>
       <c r="E63" s="1">
         <v>3840</v>
@@ -1711,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E64" s="1">
         <v>3900</v>
@@ -1731,7 +1731,7 @@
         <v>12.2</v>
       </c>
       <c r="D65" s="1">
-        <v>12.2</v>
+        <v>6.1</v>
       </c>
       <c r="E65" s="1">
         <v>3960</v>
@@ -1751,7 +1751,7 @@
         <v>12.4</v>
       </c>
       <c r="D66" s="1">
-        <v>12.4</v>
+        <v>6.2</v>
       </c>
       <c r="E66" s="1">
         <v>4020</v>
@@ -1771,7 +1771,7 @@
         <v>12.6</v>
       </c>
       <c r="D67" s="1">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="E67" s="1">
         <v>4080</v>
@@ -1791,7 +1791,7 @@
         <v>12.8</v>
       </c>
       <c r="D68" s="1">
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="E68" s="1">
         <v>4140</v>
@@ -1811,7 +1811,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="1">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="E69" s="1">
         <v>4200</v>
@@ -1831,7 +1831,7 @@
         <v>13.2</v>
       </c>
       <c r="D70" s="1">
-        <v>13.2</v>
+        <v>6.6</v>
       </c>
       <c r="E70" s="1">
         <v>4260</v>
@@ -1851,7 +1851,7 @@
         <v>13.4</v>
       </c>
       <c r="D71" s="1">
-        <v>13.4</v>
+        <v>6.7</v>
       </c>
       <c r="E71" s="1">
         <v>4320</v>
@@ -1871,7 +1871,7 @@
         <v>13.6</v>
       </c>
       <c r="D72" s="1">
-        <v>13.6</v>
+        <v>6.8</v>
       </c>
       <c r="E72" s="1">
         <v>4380</v>
@@ -1891,7 +1891,7 @@
         <v>13.8</v>
       </c>
       <c r="D73" s="1">
-        <v>13.8</v>
+        <v>6.9</v>
       </c>
       <c r="E73" s="1">
         <v>4440</v>
@@ -1911,7 +1911,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1">
         <v>4500</v>
@@ -1931,7 +1931,7 @@
         <v>14.2</v>
       </c>
       <c r="D75" s="1">
-        <v>14.2</v>
+        <v>7.1</v>
       </c>
       <c r="E75" s="1">
         <v>4560</v>
@@ -1951,7 +1951,7 @@
         <v>14.4</v>
       </c>
       <c r="D76" s="1">
-        <v>14.4</v>
+        <v>7.2</v>
       </c>
       <c r="E76" s="1">
         <v>4620</v>
@@ -1971,7 +1971,7 @@
         <v>14.6</v>
       </c>
       <c r="D77" s="1">
-        <v>14.6</v>
+        <v>7.3</v>
       </c>
       <c r="E77" s="1">
         <v>4680</v>
@@ -1991,7 +1991,7 @@
         <v>14.8</v>
       </c>
       <c r="D78" s="1">
-        <v>14.8</v>
+        <v>7.4</v>
       </c>
       <c r="E78" s="1">
         <v>4740</v>
@@ -2011,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="D79" s="1">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="E79" s="1">
         <v>4800</v>
@@ -2031,7 +2031,7 @@
         <v>15.2</v>
       </c>
       <c r="D80" s="1">
-        <v>15.2</v>
+        <v>7.6</v>
       </c>
       <c r="E80" s="1">
         <v>4860</v>
@@ -2051,7 +2051,7 @@
         <v>15.4</v>
       </c>
       <c r="D81" s="1">
-        <v>15.4</v>
+        <v>7.7</v>
       </c>
       <c r="E81" s="1">
         <v>4920</v>
@@ -2071,7 +2071,7 @@
         <v>15.6</v>
       </c>
       <c r="D82" s="1">
-        <v>15.6</v>
+        <v>7.8</v>
       </c>
       <c r="E82" s="1">
         <v>4980</v>
@@ -2091,7 +2091,7 @@
         <v>15.8</v>
       </c>
       <c r="D83" s="1">
-        <v>15.8</v>
+        <v>7.9</v>
       </c>
       <c r="E83" s="1">
         <v>5040</v>
@@ -2111,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="D84" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1">
         <v>5100</v>
@@ -2131,7 +2131,7 @@
         <v>16.2</v>
       </c>
       <c r="D85" s="1">
-        <v>16.2</v>
+        <v>8.1</v>
       </c>
       <c r="E85" s="1">
         <v>5160</v>
@@ -2151,7 +2151,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D86" s="1">
-        <v>16.399999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E86" s="1">
         <v>5220</v>
@@ -2171,7 +2171,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="D87" s="1">
-        <v>16.600000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E87" s="1">
         <v>5280</v>
@@ -2191,7 +2191,7 @@
         <v>16.8</v>
       </c>
       <c r="D88" s="1">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="E88" s="1">
         <v>5340</v>
@@ -2211,7 +2211,7 @@
         <v>17</v>
       </c>
       <c r="D89" s="1">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="E89" s="1">
         <v>5400</v>
@@ -2231,7 +2231,7 @@
         <v>17.2</v>
       </c>
       <c r="D90" s="1">
-        <v>17.2</v>
+        <v>8.6</v>
       </c>
       <c r="E90" s="1">
         <v>5460</v>
@@ -2251,7 +2251,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="D91" s="1">
-        <v>17.399999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E91" s="1">
         <v>5520</v>
@@ -2271,7 +2271,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D92" s="1">
-        <v>17.600000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E92" s="1">
         <v>5580</v>
@@ -2291,7 +2291,7 @@
         <v>17.8</v>
       </c>
       <c r="D93" s="1">
-        <v>17.8</v>
+        <v>8.9</v>
       </c>
       <c r="E93" s="1">
         <v>5640</v>
@@ -2311,7 +2311,7 @@
         <v>18</v>
       </c>
       <c r="D94" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1">
         <v>5700</v>
@@ -2331,7 +2331,7 @@
         <v>18.2</v>
       </c>
       <c r="D95" s="1">
-        <v>18.2</v>
+        <v>9.1</v>
       </c>
       <c r="E95" s="1">
         <v>5760</v>
@@ -2351,7 +2351,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D96" s="1">
-        <v>18.399999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E96" s="1">
         <v>5820</v>
@@ -2371,7 +2371,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D97" s="1">
-        <v>18.600000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E97" s="1">
         <v>5880</v>
@@ -2391,7 +2391,7 @@
         <v>18.8</v>
       </c>
       <c r="D98" s="1">
-        <v>18.8</v>
+        <v>9.4</v>
       </c>
       <c r="E98" s="1">
         <v>5940</v>
@@ -2411,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="D99" s="1">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="E99" s="1">
         <v>6000</v>
@@ -2431,7 +2431,7 @@
         <v>19.2</v>
       </c>
       <c r="D100" s="1">
-        <v>19.2</v>
+        <v>9.6</v>
       </c>
       <c r="E100" s="1">
         <v>6060</v>
@@ -2451,7 +2451,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="D101" s="1">
-        <v>19.399999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E101" s="1">
         <v>6120</v>
@@ -2471,7 +2471,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="D102" s="1">
-        <v>19.600000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E102" s="1">
         <v>6180</v>

--- a/ExcelData/Round.xlsx
+++ b/ExcelData/Round.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4B4A1-7692-465D-81D6-5228DCF3B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D1A8D7-09FC-4D7F-8A3D-DEBFC86A1527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1740" windowWidth="23520" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="20">
   <si>
     <t>回合索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>E003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -565,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>0.6</v>
@@ -585,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>0.8</v>
@@ -605,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -625,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>1.2</v>
@@ -645,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>1.4</v>
@@ -665,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>1.6</v>
@@ -685,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>1.8</v>
@@ -705,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -725,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>2.2000000000000002</v>
@@ -745,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>2.4</v>
@@ -765,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>2.6</v>
@@ -785,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>2.8</v>
@@ -865,7 +873,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>3.6</v>
@@ -885,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>3.8</v>
@@ -905,7 +913,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -925,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
         <v>4.2</v>
@@ -945,7 +953,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
         <v>4.4000000000000004</v>
@@ -965,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
         <v>4.5999999999999996</v>
@@ -985,7 +993,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
         <v>4.8</v>
@@ -1005,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
@@ -1025,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
         <v>5.2</v>
@@ -1045,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>5.4</v>
@@ -1065,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1">
         <v>5.6</v>
@@ -1085,7 +1093,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
         <v>5.8</v>
@@ -1165,7 +1173,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
         <v>6.6</v>
@@ -1185,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
         <v>6.8</v>
@@ -1205,7 +1213,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1">
         <v>7</v>
@@ -1225,7 +1233,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>7.2</v>
@@ -1245,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>7.4</v>
@@ -1265,7 +1273,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1">
         <v>7.6</v>
@@ -1285,7 +1293,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
         <v>7.8</v>
@@ -1305,7 +1313,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
         <v>8</v>
@@ -1325,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1">
         <v>8.1999999999999993</v>
@@ -1345,7 +1353,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>8.4</v>
@@ -1365,7 +1373,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1">
         <v>8.6</v>
@@ -1385,7 +1393,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
         <v>8.8000000000000007</v>
@@ -1465,7 +1473,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
         <v>9.6</v>
@@ -1485,7 +1493,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
         <v>9.8000000000000007</v>
@@ -1505,7 +1513,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1">
         <v>10</v>
@@ -1525,7 +1533,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1">
         <v>10.199999999999999</v>
@@ -1545,7 +1553,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
         <v>10.4</v>
@@ -1565,7 +1573,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>10.6</v>
@@ -1585,7 +1593,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1">
         <v>10.8</v>
@@ -1605,7 +1613,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1">
         <v>11</v>
@@ -1625,7 +1633,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1">
         <v>11.2</v>
@@ -1645,7 +1653,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>11.4</v>
@@ -1665,7 +1673,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
         <v>11.6</v>
@@ -1685,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1">
         <v>11.8</v>
@@ -1765,7 +1773,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
         <v>12.6</v>
@@ -1785,7 +1793,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C68" s="1">
         <v>12.8</v>
@@ -1805,7 +1813,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C69" s="1">
         <v>13</v>
@@ -1825,7 +1833,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1">
         <v>13.2</v>
@@ -1845,7 +1853,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1">
         <v>13.4</v>
@@ -1865,7 +1873,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1">
         <v>13.6</v>
@@ -1885,7 +1893,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1">
         <v>13.8</v>
@@ -1905,7 +1913,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>14</v>
@@ -1925,7 +1933,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
         <v>14.2</v>
@@ -1945,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1">
         <v>14.4</v>
@@ -1965,7 +1973,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C77" s="1">
         <v>14.6</v>
@@ -1985,7 +1993,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1">
         <v>14.8</v>
@@ -2065,7 +2073,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1">
         <v>15.6</v>
@@ -2085,7 +2093,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1">
         <v>15.8</v>
@@ -2105,7 +2113,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1">
         <v>16</v>
@@ -2125,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C85" s="1">
         <v>16.2</v>
@@ -2145,7 +2153,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" s="1">
         <v>16.399999999999999</v>
@@ -2165,7 +2173,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C87" s="1">
         <v>16.600000000000001</v>
@@ -2185,7 +2193,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1">
         <v>16.8</v>
@@ -2205,7 +2213,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1">
         <v>17</v>
@@ -2225,7 +2233,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="1">
         <v>17.2</v>
@@ -2245,7 +2253,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C91" s="1">
         <v>17.399999999999999</v>
@@ -2265,7 +2273,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1">
         <v>17.600000000000001</v>
@@ -2285,7 +2293,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1">
         <v>17.8</v>
@@ -2365,7 +2373,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C97" s="1">
         <v>18.600000000000001</v>
@@ -2385,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1">
         <v>18.8</v>
@@ -2405,7 +2413,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1">
         <v>19</v>
@@ -2425,7 +2433,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C100" s="1">
         <v>19.2</v>
@@ -2445,7 +2453,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C101" s="1">
         <v>19.399999999999999</v>
@@ -2465,7 +2473,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1">
         <v>19.600000000000001</v>
